--- a/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
+++ b/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\Cursos e aulas em casa\Novo-curso-html-css-guanabara\Curso-em-vídeo-html5-e-css3\html-e-css3\Lembrete de TAGs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\Estudos\Curso-de-HTML5-E-CSS3\HTML5 e CSS3\Lembrete de TAGs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE328B4-7B24-4F70-BA67-DDB360EC7409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15367A65-EB82-4803-95D2-2EDF9AEA26AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11712" windowHeight="12360" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>cabeçalho</t>
   </si>
@@ -147,6 +147,30 @@
   </si>
   <si>
     <t>inserir links ex e in.</t>
+  </si>
+  <si>
+    <t>AS CSS</t>
+  </si>
+  <si>
+    <t>Propriedades</t>
+  </si>
+  <si>
+    <t>Valores</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>background-image</t>
+  </si>
+  <si>
+    <t>background-size</t>
+  </si>
+  <si>
+    <t>background-position</t>
+  </si>
+  <si>
+    <t>height</t>
   </si>
 </sst>
 </file>
@@ -200,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,11 +233,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5487666-0A10-4969-8D42-FCBD41D66642}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,11 +570,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -556,7 +583,7 @@
       <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -730,12 +757,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14782E4-BDF7-4FB8-8630-2C30CDBC8D4E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
+++ b/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\Estudos\Curso-de-HTML5-E-CSS3\HTML5 e CSS3\Lembrete de TAGs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15367A65-EB82-4803-95D2-2EDF9AEA26AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861052E-1B30-4724-9373-DFE9DB1DB4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>cabeçalho</t>
   </si>
@@ -171,6 +171,33 @@
   </si>
   <si>
     <t>height</t>
+  </si>
+  <si>
+    <t>text-transform</t>
+  </si>
+  <si>
+    <t>uppercase</t>
+  </si>
+  <si>
+    <t>deixa o texto mauisculo</t>
+  </si>
+  <si>
+    <t>font-variant</t>
+  </si>
+  <si>
+    <t>small-caps</t>
+  </si>
+  <si>
+    <t>deixa as primeiras letras maiuscula</t>
+  </si>
+  <si>
+    <t>line-height</t>
+  </si>
+  <si>
+    <t>2em</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dar espaço entre as frases </t>
   </si>
 </sst>
 </file>
@@ -757,15 +784,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14782E4-BDF7-4FB8-8630-2C30CDBC8D4E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -806,6 +835,39 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
+++ b/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\Estudos\Curso-de-HTML5-E-CSS3\HTML5 e CSS3\Lembrete de TAGs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F861052E-1B30-4724-9373-DFE9DB1DB4DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EDB2E-E70D-415F-9169-6BA83FB070F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>cabeçalho</t>
   </si>
@@ -198,6 +198,24 @@
   </si>
   <si>
     <t xml:space="preserve">dar espaço entre as frases </t>
+  </si>
+  <si>
+    <t>border-collapse</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mistura a tabela </t>
+  </si>
+  <si>
+    <t>vertical-align</t>
+  </si>
+  <si>
+    <t>alinha dados da tabela na vertical</t>
+  </si>
+  <si>
+    <t>Top /middle</t>
   </si>
 </sst>
 </file>
@@ -585,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5487666-0A10-4969-8D42-FCBD41D66642}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -784,16 +802,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14782E4-BDF7-4FB8-8630-2C30CDBC8D4E}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
   </cols>
   <sheetData>
@@ -868,6 +886,28 @@
       </c>
       <c r="C11" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
+++ b/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\Estudos\Curso-de-HTML5-E-CSS3\HTML5 e CSS3\Lembrete de TAGs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883EDB2E-E70D-415F-9169-6BA83FB070F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F5687-60CA-43C3-8AB4-15C44DB4CD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
     <sheet name="Planilha3" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>cabeçalho</t>
   </si>
@@ -216,6 +217,60 @@
   </si>
   <si>
     <t>Top /middle</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cria tabela </t>
+  </si>
+  <si>
+    <t>th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">título para a tabela </t>
+  </si>
+  <si>
+    <t>td</t>
+  </si>
+  <si>
+    <t>Dados da Tabela</t>
+  </si>
+  <si>
+    <t>thead</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>cabeçalho da tabela</t>
+  </si>
+  <si>
+    <t>tfoot</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> head</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>col</t>
+  </si>
+  <si>
+    <t>para juntar o título da tabela com os dados semânticamente</t>
+  </si>
+  <si>
+    <t>Pseudo-classes</t>
+  </si>
+  <si>
+    <t>tr:nth-child</t>
+  </si>
+  <si>
+    <t>(2n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para deixa a tabela zebrada </t>
   </si>
 </sst>
 </file>
@@ -269,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +341,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5487666-0A10-4969-8D42-FCBD41D66642}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,16 +670,17 @@
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -632,15 +691,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -648,7 +710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -656,7 +718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -664,7 +726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -672,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -683,7 +745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -691,12 +753,55 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -802,10 +907,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14782E4-BDF7-4FB8-8630-2C30CDBC8D4E}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,6 +1015,17 @@
         <v>61</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -917,4 +1033,45 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F3860D-D1C1-4ED3-BCA9-B7AB5B05C0DB}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
+++ b/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\Estudos\Curso-de-HTML5-E-CSS3\HTML5 e CSS3\Lembrete de TAGs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26F5687-60CA-43C3-8AB4-15C44DB4CD48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1C3199-5D56-46E0-98EF-C6D77C763170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>cabeçalho</t>
   </si>
@@ -258,9 +258,6 @@
     <t>col</t>
   </si>
   <si>
-    <t>para juntar o título da tabela com os dados semânticamente</t>
-  </si>
-  <si>
     <t>Pseudo-classes</t>
   </si>
   <si>
@@ -271,6 +268,21 @@
   </si>
   <si>
     <t xml:space="preserve">para deixa a tabela zebrada </t>
+  </si>
+  <si>
+    <t>colgroup</t>
+  </si>
+  <si>
+    <t>rowgroup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">para juntar o título com colunas de forma semânticas </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> para  juntar o título  com linha de forma semânticas</t>
+  </si>
+  <si>
+    <t>para juntar o título com a coluna de forma semânticamente</t>
   </si>
 </sst>
 </file>
@@ -907,10 +919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14782E4-BDF7-4FB8-8630-2C30CDBC8D4E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1023,7 +1035,29 @@
         <v>75</v>
       </c>
       <c r="C14" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F3860D-D1C1-4ED3-BCA9-B7AB5B05C0DB}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1051,7 +1085,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="7"/>
@@ -1059,13 +1093,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>79</v>
-      </c>
-      <c r="C2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
+++ b/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\Estudos\Curso-de-HTML5-E-CSS3\HTML5 e CSS3\Lembrete de TAGs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D1C3199-5D56-46E0-98EF-C6D77C763170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A793BF7-94FA-4CC8-88C1-86537F811EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
+    <workbookView xWindow="-10524" yWindow="2412" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <t>cabeçalho</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>para juntar o título com a coluna de forma semânticamente</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>juntar um grupo de colunas ou linhas</t>
   </si>
 </sst>
 </file>
@@ -919,10 +925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14782E4-BDF7-4FB8-8630-2C30CDBC8D4E}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,6 +1064,17 @@
       </c>
       <c r="C16" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
+++ b/HTML5 e CSS3/Lembrete de TAGs/lembrete de TAgs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\Estudos\Curso-de-HTML5-E-CSS3\HTML5 e CSS3\Lembrete de TAGs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\junio\Documents\Estudos\Curso-de-HTML5-E-CSS\HTML5 e CSS3\Lembrete de TAGs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A793BF7-94FA-4CC8-88C1-86537F811EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43E0BE4-583E-43F3-BAB6-F3E725824E6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10524" yWindow="2412" windowWidth="17280" windowHeight="8964" activeTab="2" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
+    <workbookView xWindow="28680" yWindow="1995" windowWidth="20640" windowHeight="11160" xr2:uid="{8AA466D9-01B7-4F0F-A205-ECC1B6D6A160}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="111">
   <si>
     <t>cabeçalho</t>
   </si>
@@ -289,13 +289,85 @@
   </si>
   <si>
     <t>juntar um grupo de colunas ou linhas</t>
+  </si>
+  <si>
+    <t>explicação sobre a TAG</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>a letra em negrito</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>itálico</t>
+  </si>
+  <si>
+    <t>deixa letra em itálico</t>
+  </si>
+  <si>
+    <t>em</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ênfase </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dar enfase no texto </t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>marca texto</t>
+  </si>
+  <si>
+    <t>marca</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deixa a letra pequena </t>
+  </si>
+  <si>
+    <t>del</t>
+  </si>
+  <si>
+    <t>texto excluído</t>
+  </si>
+  <si>
+    <t>ins</t>
+  </si>
+  <si>
+    <t>texto sublinhado</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>sup</t>
+  </si>
+  <si>
+    <t>eleva letra e diminui</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>abaixa a letra e diminui</t>
+  </si>
+  <si>
+    <t>Explicação sobre a tag</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,8 +387,16 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,8 +409,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -338,21 +430,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,6 +464,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -677,156 +785,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5487666-0A10-4969-8D42-FCBD41D66642}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" customWidth="1"/>
     <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>37</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="8" t="s">
         <v>64</v>
       </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="10" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -846,15 +1088,15 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
@@ -862,7 +1104,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" t="s">
@@ -870,7 +1112,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -878,7 +1120,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
@@ -886,7 +1128,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B8" t="s">
@@ -894,7 +1136,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B9" t="s">
@@ -902,7 +1144,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B10" t="s">
@@ -910,7 +1152,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B11" t="s">
@@ -927,23 +1169,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14782E4-BDF7-4FB8-8630-2C30CDBC8D4E}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.33203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
+    <col min="3" max="3" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -951,6 +1193,9 @@
       </c>
       <c r="B3" t="s">
         <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1101,12 +1346,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
